--- a/invation Ver.0.02.xlsx
+++ b/invation Ver.0.02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="60" windowWidth="15075" windowHeight="7905" tabRatio="847" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="1605" yWindow="60" windowWidth="15075" windowHeight="7905" tabRatio="847" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="48" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="プロトタイプまでの役割分担" sheetId="47" r:id="rId4"/>
     <sheet name="システム詳細" sheetId="35" r:id="rId5"/>
     <sheet name="ゲーム中のメニュー(固定カメラモード)" sheetId="49" r:id="rId6"/>
+    <sheet name="操作方法（固定カメラ）" sheetId="50" r:id="rId7"/>
+    <sheet name="操作方法（TPS）" sheetId="51" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="96">
   <si>
     <t>ワンプレイあたり３０分シナリオ</t>
     <rPh sb="10" eb="11">
@@ -891,6 +893,92 @@
     </rPh>
     <rPh sb="22" eb="23">
       <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作方法</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上に移動</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下に移動</t>
+    <rPh sb="0" eb="1">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右回転</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左回転</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左に移動</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右に移動</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1073,10 +1161,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -15560,7 +15648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F76" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q91" sqref="Q91"/>
     </sheetView>
   </sheetViews>
@@ -15700,7 +15788,7 @@
   <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15752,7 +15840,7 @@
   <dimension ref="A2:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15820,8 +15908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15859,17 +15947,17 @@
       <c r="B4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="13"/>
       <c r="I4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="12"/>
+      <c r="J4" s="13"/>
       <c r="M4" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="13"/>
     </row>
     <row r="5" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="I5" s="5"/>
@@ -15883,12 +15971,12 @@
       <c r="B6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="13"/>
       <c r="I6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
       <c r="M6" s="5"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -15910,13 +15998,13 @@
       <c r="B8" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
       <c r="I8" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="12"/>
+      <c r="J8" s="13"/>
       <c r="K8" s="6"/>
       <c r="L8" s="9" t="s">
         <v>72</v>
@@ -16181,4 +16269,110 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>